--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1444639.507971343</v>
+        <v>-1447499.340206613</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,73 +659,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>158.7758131900531</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.5255871663203</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>187.5255871663203</v>
-      </c>
-      <c r="I2" t="n">
-        <v>75.14384397628642</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>77.08171901666367</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>187.5255871663203</v>
       </c>
       <c r="W2" t="n">
-        <v>12.94697418314479</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26.36452539545531</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>167.5577857569068</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>33.83508264354027</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409146</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,20 +783,20 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846313</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>187.5255871663203</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>134.2918081379562</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.11163636040646</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.2159462544349</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>382.6612299361401</v>
       </c>
       <c r="G5" t="n">
-        <v>382.6612299361405</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476404</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>99.91982037447846</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.0506927015824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8024773971665</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295512</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238338</v>
+        <v>49.99985954238345</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>94.38549606442793</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>140.0792785144353</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.61392489878709</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443857</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>269.1152538431721</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>341.4393997559725</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>232.6796735823508</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.14185495865149</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.61221135370315</v>
+        <v>2.478783589885593</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337054</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>20.67756722602948</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>81.27859867330056</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>19.72264368952156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652687</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.7444897095955</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C2" t="n">
-        <v>280.3247046931104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D2" t="n">
-        <v>280.3247046931104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>280.3247046931104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>280.3247046931104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>280.3247046931104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>90.90491967662524</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330562</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426227</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426227</v>
+        <v>589.7227393823993</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426227</v>
+        <v>589.7227393823993</v>
       </c>
       <c r="U2" t="n">
-        <v>672.242026426227</v>
+        <v>400.3029543659141</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097418</v>
+        <v>210.883169349429</v>
       </c>
       <c r="W2" t="n">
-        <v>469.7444897095955</v>
+        <v>210.883169349429</v>
       </c>
       <c r="X2" t="n">
-        <v>469.7444897095955</v>
+        <v>184.2523356166458</v>
       </c>
       <c r="Y2" t="n">
-        <v>469.7444897095955</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336488</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336488</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336488</v>
+        <v>108.6784525769741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330562</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652812</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487961</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487961</v>
+        <v>298.0982375934592</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487961</v>
+        <v>298.0982375934592</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487961</v>
+        <v>298.0982375934592</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.0342726003555</v>
+        <v>108.6784525769741</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330562</v>
@@ -4510,28 +4510,28 @@
         <v>67.74542702829038</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404142</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404142</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404142</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404142</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.313109576247</v>
+        <v>1284.879804424258</v>
       </c>
       <c r="C5" t="n">
-        <v>782.3505926358357</v>
+        <v>915.9172874838459</v>
       </c>
       <c r="D5" t="n">
-        <v>424.0848940290851</v>
+        <v>915.9172874838459</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0848940290851</v>
+        <v>530.1290348856018</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1393932798817</v>
+        <v>143.6025400006117</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489124</v>
+        <v>131.0545164704104</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489124</v>
+        <v>131.0545164704104</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="J5" t="n">
         <v>93.38580827121507</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235849</v>
+        <v>238.2046462235846</v>
       </c>
       <c r="L5" t="n">
-        <v>454.766982319065</v>
+        <v>454.7669823190644</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643101</v>
+        <v>727.4037457643092</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453893</v>
+        <v>1009.065865453892</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831935</v>
+        <v>1261.696156831934</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.80926485578</v>
+        <v>1442.809264855778</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.64491974456</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.64491974456</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744562</v>
+        <v>1385.80891591363</v>
       </c>
       <c r="T5" t="n">
-        <v>1318.030980991987</v>
+        <v>1385.80891591363</v>
       </c>
       <c r="U5" t="n">
-        <v>1318.030980991987</v>
+        <v>1385.80891591363</v>
       </c>
       <c r="V5" t="n">
-        <v>1318.030980991987</v>
+        <v>1284.879804424258</v>
       </c>
       <c r="W5" t="n">
-        <v>1318.030980991987</v>
+        <v>1284.879804424258</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.030980991987</v>
+        <v>1284.879804424258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1151.313109576247</v>
+        <v>1284.879804424258</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843.8805610331345</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="C6" t="n">
-        <v>669.4275317520076</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="D6" t="n">
-        <v>520.4931220907563</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="E6" t="n">
-        <v>361.2556670853008</v>
+        <v>167.7871179879887</v>
       </c>
       <c r="F6" t="n">
-        <v>214.7211091121858</v>
+        <v>167.7871179879887</v>
       </c>
       <c r="G6" t="n">
-        <v>77.54688951908832</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908832</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275317</v>
+        <v>49.18216652275305</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477053</v>
+        <v>159.074828147705</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543725</v>
+        <v>353.161614454372</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642248</v>
+        <v>599.0086077642241</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621763</v>
+        <v>865.7710843621753</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970548</v>
+        <v>1087.586838970547</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422852</v>
+        <v>1246.280471422851</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.44376568049</v>
+        <v>1302.443765680488</v>
       </c>
       <c r="R6" t="n">
-        <v>1251.938857051819</v>
+        <v>1251.938857051818</v>
       </c>
       <c r="S6" t="n">
-        <v>1107.434782966766</v>
+        <v>1107.434782966765</v>
       </c>
       <c r="T6" t="n">
-        <v>1107.434782966766</v>
+        <v>911.5224021523717</v>
       </c>
       <c r="U6" t="n">
-        <v>1107.434782966766</v>
+        <v>911.5224021523717</v>
       </c>
       <c r="V6" t="n">
-        <v>1012.095898053203</v>
+        <v>676.3702939206289</v>
       </c>
       <c r="W6" t="n">
-        <v>1012.095898053203</v>
+        <v>534.8760731989771</v>
       </c>
       <c r="X6" t="n">
-        <v>1012.095898053203</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="Y6" t="n">
-        <v>1012.095898053203</v>
+        <v>327.0245729934442</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489124</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713269</v>
+        <v>51.49054881713257</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363487</v>
+        <v>108.1125511363485</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055989</v>
+        <v>171.0707966055985</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221361</v>
+        <v>240.3895616221356</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645254</v>
+        <v>284.1035717645248</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354691</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354691</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354691</v>
       </c>
       <c r="S7" t="n">
-        <v>98.90979223204991</v>
+        <v>302.4464881354691</v>
       </c>
       <c r="T7" t="n">
-        <v>98.90979223204991</v>
+        <v>302.4464881354691</v>
       </c>
       <c r="U7" t="n">
-        <v>98.90979223204991</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="V7" t="n">
-        <v>98.90979223204991</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="W7" t="n">
-        <v>98.90979223204991</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="X7" t="n">
-        <v>98.90979223204991</v>
+        <v>30.61289839489121</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.90979223204991</v>
+        <v>30.61289839489121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817.0561080821412</v>
+        <v>806.35928974848</v>
       </c>
       <c r="C8" t="n">
-        <v>448.0935911417295</v>
+        <v>806.35928974848</v>
       </c>
       <c r="D8" t="n">
         <v>448.0935911417295</v>
@@ -4835,19 +4835,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.429853589147</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1580.661198319033</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X8" t="n">
-        <v>1207.195440057953</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y8" t="n">
-        <v>817.0561080821412</v>
+        <v>1151.24757233027</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>267.4604631511913</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="C10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="D10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="E10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="F10" t="n">
-        <v>61.15930901658109</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="G10" t="n">
-        <v>61.15930901658109</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="H10" t="n">
-        <v>61.15930901658109</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="I10" t="n">
-        <v>61.15930901658109</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4990,22 +4990,22 @@
         <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="W10" t="n">
-        <v>208.0492565144914</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="X10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.0492565144914</v>
+        <v>45.8730183460583</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.221817693721</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.462102832032</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535235</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4311299055728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5180363231797</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6280888252693</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,13 +6008,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046873</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>129.368238939902</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666367</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>140.2266713038146</v>
       </c>
       <c r="W2" t="n">
-        <v>336.2939945342682</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>218.6801528991468</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>199.9216970693931</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>46.45968844823187</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>84.24553961896828</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>232.4149996343064</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-5.12168098488653e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049363.273544795</v>
+        <v>1049363.273544796</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154573</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26329,31 +26329,31 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="I2" t="n">
         <v>161429.3199380013</v>
       </c>
-      <c r="I2" t="n">
-        <v>161429.3199380012</v>
-      </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996519</v>
+        <v>216004.0468996514</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960598</v>
+        <v>167084.5112960603</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854472</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838313</v>
+        <v>50221.67010838299</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064542</v>
+        <v>59784.02116064554</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515979</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969922</v>
+        <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468112</v>
+        <v>221112.0537468113</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26448,16 +26448,16 @@
         <v>22817.55530496085</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496086</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.55530496086</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496084</v>
       </c>
-      <c r="N4" t="n">
-        <v>22817.55530496082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496085</v>
-      </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496089</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.9759879012</v>
+        <v>72511.97598790115</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709268.1431139943</v>
+        <v>-709628.226129712</v>
       </c>
       <c r="C6" t="n">
-        <v>-345419.7226615075</v>
+        <v>-345419.7226615071</v>
       </c>
       <c r="D6" t="n">
-        <v>-262278.2292679731</v>
+        <v>-262278.2292679736</v>
       </c>
       <c r="E6" t="n">
-        <v>-555963.1135020382</v>
+        <v>-555997.8514274739</v>
       </c>
       <c r="F6" t="n">
-        <v>45480.09407222667</v>
+        <v>45445.35614679099</v>
       </c>
       <c r="G6" t="n">
-        <v>45480.09407222664</v>
+        <v>45445.35614679105</v>
       </c>
       <c r="H6" t="n">
-        <v>45480.09407222673</v>
+        <v>45445.35614679105</v>
       </c>
       <c r="I6" t="n">
-        <v>45480.0940722267</v>
+        <v>45445.35614679108</v>
       </c>
       <c r="J6" t="n">
-        <v>-3584.850656318085</v>
+        <v>-3619.588581753633</v>
       </c>
       <c r="K6" t="n">
-        <v>-4741.576036156403</v>
+        <v>-4776.313961591935</v>
       </c>
       <c r="L6" t="n">
-        <v>-21557.33834666494</v>
+        <v>-21557.33834666503</v>
       </c>
       <c r="M6" t="n">
-        <v>-118919.6977376174</v>
+        <v>-118919.6977376175</v>
       </c>
       <c r="N6" t="n">
+        <v>38226.68281398044</v>
+      </c>
+      <c r="O6" t="n">
         <v>38226.68281398053</v>
       </c>
-      <c r="O6" t="n">
-        <v>38226.68281398047</v>
-      </c>
       <c r="P6" t="n">
-        <v>38226.68281398059</v>
+        <v>38226.68281398043</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836632</v>
+        <v>716.4483122836627</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,7 +26790,7 @@
         <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361405</v>
+        <v>382.6612299361401</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707582</v>
+        <v>167.9783713707577</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540209</v>
+        <v>137.2623522540214</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698202</v>
+        <v>195.1356427698198</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900227</v>
+        <v>159.4537267900231</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663205</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698202</v>
+        <v>195.1356427698198</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900228</v>
+        <v>159.4537267900231</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698202</v>
+        <v>195.1356427698198</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900227</v>
+        <v>159.4537267900231</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>50.32747314368824</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871004</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>343.3665752830137</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67.00667470719944</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265831</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625680939</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377063</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310498</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.39088763934819</v>
+        <v>18.15710861098407</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>68.68604055159719</v>
       </c>
       <c r="R4" t="n">
-        <v>94.71073325028388</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27594,7 +27594,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>24.21481580557133</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>29.76131335875874</v>
-      </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476397</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724301</v>
+        <v>34.66253762724313</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926213</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>227.8324380956564</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.1872459544711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>97.35224439075471</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295515</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>138.4150910849974</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>111.6157046464843</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.2180552831502</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>116.5978353037442</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037894</v>
+        <v>35.65413415037899</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.3213064746127</v>
+        <v>43.32130647461277</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106941</v>
+        <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>17.13330518752036</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>41.29444190750803</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>95.07258488778407</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27929,22 +27929,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>86.36537888838376</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5420979855360955</v>
+        <v>15.67552574935366</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.073442107663642e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28324,19 +28324,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.816000223760935e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29035,13 +29035,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29086,10 +29086,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29284,13 +29284,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,16 +29323,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88019422023583</v>
+        <v>2.880194220235828</v>
       </c>
       <c r="H5" t="n">
-        <v>29.4967890579902</v>
+        <v>29.49678905799018</v>
       </c>
       <c r="I5" t="n">
         <v>111.0386876756419</v>
       </c>
       <c r="J5" t="n">
-        <v>244.452884199741</v>
+        <v>244.4528841997408</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423237</v>
+        <v>366.3715055423235</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098661</v>
+        <v>454.5162494098658</v>
       </c>
       <c r="M5" t="n">
-        <v>505.736903373985</v>
+        <v>505.7369033739847</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022301</v>
+        <v>513.9202552022298</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247601</v>
+        <v>485.2803239247597</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126879</v>
+        <v>414.1755291126877</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004922</v>
+        <v>311.028573600492</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868891</v>
+        <v>180.923000186889</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362404</v>
+        <v>65.63242579362399</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908235</v>
+        <v>12.60805019908234</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188663</v>
+        <v>0.2304155376188662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044106</v>
+        <v>1.541039766044105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574176</v>
+        <v>14.88319984574175</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704488</v>
+        <v>53.05772878704484</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594565</v>
+        <v>145.5944631594564</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844116</v>
+        <v>248.8441274844114</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754977</v>
+        <v>334.6016386754974</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945964</v>
+        <v>390.4643301945961</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519712</v>
+        <v>400.798759151971</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306781</v>
+        <v>366.6525622306779</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510012</v>
+        <v>294.2710058510011</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462617</v>
+        <v>196.7123743462615</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158058</v>
+        <v>95.67964442158051</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963502</v>
+        <v>28.624137759635</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572511</v>
+        <v>6.211471688572508</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344807</v>
+        <v>0.1013841951344806</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29195597297054</v>
+        <v>1.291955972970539</v>
       </c>
       <c r="H7" t="n">
         <v>11.48666310513808</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351407</v>
+        <v>38.85263962351404</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901717</v>
+        <v>91.34128728901712</v>
       </c>
       <c r="K7" t="n">
         <v>150.1017939505772</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178201</v>
+        <v>192.07861801782</v>
       </c>
       <c r="M7" t="n">
-        <v>202.519971290282</v>
+        <v>202.5199712902819</v>
       </c>
       <c r="N7" t="n">
-        <v>197.704499027392</v>
+        <v>197.7044990273918</v>
       </c>
       <c r="O7" t="n">
-        <v>182.612104252236</v>
+        <v>182.6121042522359</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036369</v>
+        <v>156.2562024036368</v>
       </c>
       <c r="Q7" t="n">
         <v>108.1836951548331</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647536</v>
+        <v>58.09103856647532</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258659</v>
+        <v>22.51526909258657</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874124</v>
+        <v>5.520175520874121</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839317</v>
+        <v>0.07047032579839313</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145779</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305471</v>
+        <v>63.40697967305454</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973432</v>
+        <v>146.281654497343</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398788</v>
+        <v>218.7498344398786</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467123</v>
+        <v>275.390670146712</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056392</v>
+        <v>284.5071916056389</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030733</v>
+        <v>255.182112503073</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574184</v>
+        <v>182.9425333574181</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604268</v>
+        <v>88.72288372604251</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278983</v>
+        <v>18.75683649278974</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100526</v>
+        <v>111.0026885100525</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956235</v>
+        <v>196.0472588956233</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725781</v>
+        <v>248.3302962725778</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686378</v>
+        <v>269.4570470686376</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862336</v>
+        <v>224.0563177862334</v>
       </c>
       <c r="P6" t="n">
-        <v>160.296598436671</v>
+        <v>160.2965984366708</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024015</v>
+        <v>56.73060026024001</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004187</v>
+        <v>21.08853578004178</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658185</v>
+        <v>57.19394173658173</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267695</v>
+        <v>63.5941873426768</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215877</v>
+        <v>70.01895456215865</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039325</v>
+        <v>44.15556580039313</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448929</v>
+        <v>18.52819835448918</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312445</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
